--- a/result/arbeitsortbeschäftigung.xlsx
+++ b/result/arbeitsortbeschäftigung.xlsx
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>1289</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>2850</v>
@@ -562,13 +562,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>235</v>
       </c>
       <c r="D7" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>706</v>
@@ -581,10 +581,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>913</v>
@@ -657,13 +657,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>177</v>
       </c>
       <c r="D12" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>224</v>
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>326</v>
@@ -723,7 +723,7 @@
         <v>324</v>
       </c>
       <c r="E15" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -733,13 +733,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>219</v>
       </c>
       <c r="D16" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>462</v>
@@ -847,13 +847,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>251</v>
       </c>
       <c r="D22" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>624</v>
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>214</v>
@@ -904,13 +904,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>1602</v>
       </c>
       <c r="D25" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>681</v>
@@ -923,13 +923,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>125</v>
       </c>
       <c r="D26" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>432</v>

--- a/result/arbeitsortbeschäftigung.xlsx
+++ b/result/arbeitsortbeschäftigung.xlsx
@@ -539,7 +539,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Butzbach Friedrich-Ludwig-Weidig-Stadt</t>
+          <t>Butzbach</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -596,7 +596,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Friedberg Hessen</t>
+          <t>Friedberg (Hessen)</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -843,7 +843,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Reichelsheim Wetterau</t>
+          <t>Reichelsheim (Wetterau)</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -881,7 +881,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Rosbach v d Höhe</t>
+          <t>Rosbach v. d. Höhe</t>
         </is>
       </c>
       <c r="B24" t="n">
